--- a/script_root/examples/gen_lua_config/data/excel/config_base.xlsx
+++ b/script_root/examples/gen_lua_config/data/excel/config_base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27195" windowHeight="13500"/>
+    <workbookView windowWidth="27195" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigBase" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
   <si>
     <t>ConfigEx.ConfigExtra:extra_data</t>
   </si>
@@ -51,9 +51,18 @@
     <t>int_float_map_vec</t>
   </si>
   <si>
+    <t>vec_map</t>
+  </si>
+  <si>
     <t>str_val</t>
   </si>
   <si>
+    <t>raw_val</t>
+  </si>
+  <si>
+    <t>int_raw_map_vec</t>
+  </si>
+  <si>
     <t>int;key</t>
   </si>
   <si>
@@ -72,10 +81,19 @@
     <t>&lt;string, [float]&gt;</t>
   </si>
   <si>
+    <t>[&lt;string, int&gt;]</t>
+  </si>
+  <si>
     <t>string;key;group;</t>
   </si>
   <si>
-    <t>1;2;3;'''14;1223'''</t>
+    <t>raw</t>
+  </si>
+  <si>
+    <t>&lt;int, [raw]&gt;</t>
+  </si>
+  <si>
+    <t>"""currency|1|100;currency|2|200;currency|3|300""";"""currency|1|100;currency|2|200;currency|3|300""";"""currency|1|100;currency|2|200;currency|3|300""";</t>
   </si>
   <si>
     <t>1:2;3:4;5:6</t>
@@ -87,6 +105,15 @@
     <t>1:100|101|102;2:201|202|203</t>
   </si>
   <si>
+    <t>a:2|b:3;3:1|c:4</t>
+  </si>
+  <si>
+    <t>a.b</t>
+  </si>
+  <si>
+    <t>1:"""101|111"""|101|102;2:201|202|203</t>
+  </si>
+  <si>
     <t>1:2;3:4;5:7</t>
   </si>
   <si>
@@ -96,6 +123,9 @@
     <t>1:100|101|102;2:201|202|204</t>
   </si>
   <si>
+    <t>cd;ab</t>
+  </si>
+  <si>
     <t>1:2;3:4;5:8</t>
   </si>
   <si>
@@ -103,6 +133,9 @@
   </si>
   <si>
     <t>1:100|101|102;2:201|202|205</t>
+  </si>
+  <si>
+    <t>abcd;</t>
   </si>
   <si>
     <t>1:2;3:4;5:9</t>
@@ -1149,20 +1182,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="35.25" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="35.125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+    <col min="10" max="10" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1193,7 +1228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1215,8 +1250,17 @@
       <c r="G10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1238,31 +1282,49 @@
       <c r="G11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>1024</v>
       </c>
@@ -1270,22 +1332,31 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13">
         <v>234</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>3024</v>
       </c>
@@ -1293,22 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14">
         <v>2345</v>
       </c>
-    </row>
-    <row r="15" ht="33" customHeight="1" spans="1:7">
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" ht="33" customHeight="1" spans="1:10">
       <c r="A15">
         <v>5024</v>
       </c>
@@ -1316,22 +1396,31 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15">
         <v>4456</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>7024</v>
       </c>
@@ -1339,22 +1428,31 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
         <v>29</v>
       </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="H16">
+        <v>6567</v>
+      </c>
+      <c r="I16">
+        <v>6567</v>
+      </c>
+      <c r="J16" t="s">
         <v>31</v>
       </c>
-      <c r="G16">
-        <v>6567</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>9024</v>
       </c>
@@ -1362,22 +1460,31 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17">
+        <v>45</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17">
         <v>8678</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>8678</v>
+      </c>
+      <c r="J17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>11024</v>
       </c>
@@ -1385,22 +1492,31 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18">
         <v>10789</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>10789</v>
+      </c>
+      <c r="J18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>13024</v>
       </c>
@@ -1408,22 +1524,31 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19">
+        <v>51</v>
+      </c>
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19">
         <v>12900</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>12900</v>
+      </c>
+      <c r="J19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>15024</v>
       </c>
@@ -1431,22 +1556,31 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20">
+        <v>54</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20">
         <v>15011</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>15011</v>
+      </c>
+      <c r="J20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>17024</v>
       </c>
@@ -1454,22 +1588,31 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21">
+        <v>57</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21">
         <v>17122</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>17122</v>
+      </c>
+      <c r="J21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>19024</v>
       </c>
@@ -1477,22 +1620,31 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22">
+        <v>60</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22">
         <v>19233</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>19233</v>
+      </c>
+      <c r="J22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>21024</v>
       </c>
@@ -1500,19 +1652,28 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23">
+        <v>63</v>
+      </c>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23">
         <v>21344</v>
+      </c>
+      <c r="I23">
+        <v>21344</v>
+      </c>
+      <c r="J23" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/script_root/examples/gen_lua_config/data/excel/config_base.xlsx
+++ b/script_root/examples/gen_lua_config/data/excel/config_base.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
   <si>
     <t>ConfigEx.ConfigExtra:extra_data</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>a:2|b:3;3:1|c:4</t>
+  </si>
+  <si>
+    <t>你号</t>
   </si>
   <si>
     <t>a.b</t>
@@ -1185,7 +1188,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1346,14 +1349,14 @@
       <c r="G13" t="s">
         <v>29</v>
       </c>
-      <c r="H13">
-        <v>234</v>
+      <c r="H13" t="s">
+        <v>30</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1367,25 +1370,25 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
         <v>29</v>
       </c>
-      <c r="H14">
-        <v>2345</v>
+      <c r="H14" t="s">
+        <v>30</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" ht="33" customHeight="1" spans="1:10">
@@ -1399,25 +1402,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
         <v>29</v>
       </c>
-      <c r="H15">
-        <v>4456</v>
+      <c r="H15" t="s">
+        <v>30</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1431,25 +1434,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s">
         <v>29</v>
       </c>
-      <c r="H16">
-        <v>6567</v>
+      <c r="H16" t="s">
+        <v>30</v>
       </c>
       <c r="I16">
         <v>6567</v>
       </c>
       <c r="J16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1463,25 +1466,25 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s">
         <v>29</v>
       </c>
-      <c r="H17">
-        <v>8678</v>
+      <c r="H17" t="s">
+        <v>30</v>
       </c>
       <c r="I17">
         <v>8678</v>
       </c>
       <c r="J17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1495,25 +1498,25 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
         <v>29</v>
       </c>
-      <c r="H18">
-        <v>10789</v>
+      <c r="H18" t="s">
+        <v>30</v>
       </c>
       <c r="I18">
         <v>10789</v>
       </c>
       <c r="J18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1527,25 +1530,25 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s">
         <v>29</v>
       </c>
-      <c r="H19">
-        <v>12900</v>
+      <c r="H19" t="s">
+        <v>30</v>
       </c>
       <c r="I19">
         <v>12900</v>
       </c>
       <c r="J19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1559,25 +1562,25 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s">
         <v>29</v>
       </c>
-      <c r="H20">
-        <v>15011</v>
+      <c r="H20" t="s">
+        <v>30</v>
       </c>
       <c r="I20">
         <v>15011</v>
       </c>
       <c r="J20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1591,25 +1594,25 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G21" t="s">
         <v>29</v>
       </c>
-      <c r="H21">
-        <v>17122</v>
+      <c r="H21" t="s">
+        <v>30</v>
       </c>
       <c r="I21">
         <v>17122</v>
       </c>
       <c r="J21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1623,25 +1626,25 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G22" t="s">
         <v>29</v>
       </c>
-      <c r="H22">
-        <v>19233</v>
+      <c r="H22" t="s">
+        <v>30</v>
       </c>
       <c r="I22">
         <v>19233</v>
       </c>
       <c r="J22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1655,25 +1658,25 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G23" t="s">
         <v>29</v>
       </c>
-      <c r="H23">
-        <v>21344</v>
+      <c r="H23" t="s">
+        <v>30</v>
       </c>
       <c r="I23">
         <v>21344</v>
       </c>
       <c r="J23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
